--- a/app/public/DocPrint/Facture/2022-01-25/Facture_FPF202220001_5008.xlsx
+++ b/app/public/DocPrint/Facture/2022-01-25/Facture_FPF202220001_5008.xlsx
@@ -565,6 +565,36 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7048500" cy="657225"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="logoproform" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -906,7 +936,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:IW46"/>
+  <dimension ref="A1:IW48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="G18" sqref="G18"/>
@@ -1603,6 +1633,9 @@
     </row>
     <row r="46" spans="1:257">
       <c r="A46" s="1"/>
+    </row>
+    <row r="48" spans="1:257">
+      <c r="A48" s="1"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
